--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2010.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2010.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159395428209641</v>
+        <v>1.087389945983887</v>
       </c>
       <c r="B1">
-        <v>2.311121269288509</v>
+        <v>3.094913244247437</v>
       </c>
       <c r="C1">
-        <v>7.890336677286944</v>
+        <v>6.58001708984375</v>
       </c>
       <c r="D1">
-        <v>2.431219490986945</v>
+        <v>1.830418825149536</v>
       </c>
       <c r="E1">
-        <v>1.225067022071804</v>
+        <v>1.24502694606781</v>
       </c>
     </row>
   </sheetData>
